--- a/biology/Zoologie/Dischidodactylus_duidensis/Dischidodactylus_duidensis.xlsx
+++ b/biology/Zoologie/Dischidodactylus_duidensis/Dischidodactylus_duidensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dischidodactylus duidensis est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dischidodactylus duidensis est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État d'Amazonas au Venezuela[1]. Elle se rencontre à environ 1 400 m d'altitude sur le Cerro Duida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État d'Amazonas au Venezuela. Elle se rencontre à environ 1 400 m d'altitude sur le Cerro Duida.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 28,2 mm et le mâle paratype 22,9 mm[2]. Son dos est brun très foncé, presque noir. Ses membres postérieurs présentent des barres sombres. Son ventre est brun gris.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 28,2 mm et le mâle paratype 22,9 mm. Son dos est brun très foncé, presque noir. Ses membres postérieurs présentent des barres sombres. Son ventre est brun gris.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de duid[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Cerro Duida[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de duid[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Cerro Duida.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rivero, 1968 : A new species of Elosia (Amphibia. Salientia) from Mt. Duida, Venezuela. American Museum Novitates, no 2334, p. 1-9 (texte intégral).</t>
         </is>
